--- a/Daily.xlsx
+++ b/Daily.xlsx
@@ -914,7 +914,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -1015,6 +1015,9 @@
       <c r="K3" s="2" t="n">
         <v>350</v>
       </c>
+      <c r="L3" t="n">
+        <v>1750</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="5" t="n">
@@ -1048,6 +1051,9 @@
       </c>
       <c r="K4" s="2" t="n">
         <v>352</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1760</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
